--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="9645"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28290" windowHeight="13050"/>
+    <workbookView windowWidth="28290" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Penetration</t>
+  </si>
+  <si>
+    <t>ShootSound</t>
+  </si>
+  <si>
+    <t>FireEffect</t>
   </si>
   <si>
     <t>子弹id</t>
@@ -131,6 +137,12 @@
 格式为[value]或者[min,max]</t>
   </si>
   <si>
+    <t>射击音效</t>
+  </si>
+  <si>
+    <t>开火特效, 该特效脚本必须实现IEffect接口</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
     <t>[float]</t>
   </si>
   <si>
+    <t>$Sound</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -170,6 +185,9 @@
     <t>[300,400]</t>
   </si>
   <si>
+    <t>shooting0005</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -242,6 +260,9 @@
     <t>[70]</t>
   </si>
   <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
     <t>0006</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
   </si>
   <si>
     <t>0008</t>
@@ -1290,10 +1314,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,9 +1336,11 @@
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:13">
+    <row r="1" ht="33" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,497 +1380,524 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="122" customHeight="1" spans="1:13">
+    <row r="2" ht="122" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="64" customHeight="1" spans="1:13">
+    <row r="3" ht="64" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:13">
+    <row r="4" ht="28" customHeight="1" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:13">
+    <row r="8" ht="26" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="10" ht="28" customHeight="1" spans="1:13">
+    <row r="10" ht="28" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:13">
@@ -1860,34 +1915,34 @@
         <v>1001</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1"/>
@@ -1897,28 +1952,28 @@
         <v>2001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28290" windowHeight="13650"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>Id</t>
   </si>
@@ -182,46 +182,49 @@
     <t>[-1]</t>
   </si>
   <si>
+    <t>[100,150]</t>
+  </si>
+  <si>
+    <t>shooting0005</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>子弹2</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[-10,10]</t>
+  </si>
+  <si>
+    <t>[280,380]</t>
+  </si>
+  <si>
+    <t>[200,250]</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>子弹3</t>
+  </si>
+  <si>
+    <t>bullet0003</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[320,340]</t>
+  </si>
+  <si>
     <t>[300,400]</t>
-  </si>
-  <si>
-    <t>shooting0005</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>子弹2</t>
-  </si>
-  <si>
-    <t>bullet0002</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[-10,10]</t>
-  </si>
-  <si>
-    <t>[280,380]</t>
-  </si>
-  <si>
-    <t>[200,250]</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>子弹3</t>
-  </si>
-  <si>
-    <t>bullet0003</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[320,340]</t>
   </si>
   <si>
     <t>0004</t>
@@ -1319,7 +1322,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1595,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>40</v>
@@ -1609,10 +1612,10 @@
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1624,19 +1627,19 @@
         <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
@@ -1650,37 +1653,37 @@
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>38</v>
@@ -1689,42 +1692,42 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>40</v>
@@ -1735,34 +1738,34 @@
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>40</v>
@@ -1771,24 +1774,24 @@
         <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -1800,13 +1803,13 @@
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>40</v>
@@ -1820,16 +1823,16 @@
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
@@ -1841,13 +1844,13 @@
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>40</v>
@@ -1861,34 +1864,34 @@
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>40</v>
@@ -1915,31 +1918,31 @@
         <v>1001</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>40</v>
@@ -1952,28 +1955,28 @@
         <v>2001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27855" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -182,7 +182,7 @@
     <t>[-1]</t>
   </si>
   <si>
-    <t>[100,150]</t>
+    <t>[200,250]</t>
   </si>
   <si>
     <t>shooting0005</t>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>[280,380]</t>
-  </si>
-  <si>
-    <t>[200,250]</t>
   </si>
   <si>
     <t>0003</t>
@@ -1320,9 +1317,9 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1557,7 +1554,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>40</v>
@@ -1571,19 +1568,19 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:13">
       <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>48</v>
@@ -1592,13 +1589,13 @@
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>40</v>
@@ -1612,10 +1609,10 @@
     </row>
     <row r="7" ht="29" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1627,19 +1624,19 @@
         <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
@@ -1653,37 +1650,37 @@
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:14">
       <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>38</v>
@@ -1692,42 +1689,42 @@
         <v>40</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>40</v>
@@ -1738,60 +1735,60 @@
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:14">
       <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -1803,13 +1800,13 @@
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>40</v>
@@ -1823,16 +1820,16 @@
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:13">
       <c r="A12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
@@ -1844,13 +1841,13 @@
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>40</v>
@@ -1864,34 +1861,34 @@
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>40</v>
@@ -1918,31 +1915,31 @@
         <v>1001</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>40</v>
@@ -1955,28 +1952,28 @@
         <v>2001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -161,7 +161,7 @@
     <t>0001</t>
   </si>
   <si>
-    <t>子弹1</t>
+    <t>步枪子弹</t>
   </si>
   <si>
     <t>bullet0001</t>
@@ -188,10 +188,13 @@
     <t>shooting0005</t>
   </si>
   <si>
+    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
-    <t>子弹2</t>
+    <t>霰弹枪子弹</t>
   </si>
   <si>
     <t>bullet0002</t>
@@ -206,10 +209,13 @@
     <t>[280,380]</t>
   </si>
   <si>
+    <t>shooting0003</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
-    <t>子弹3</t>
+    <t>手枪子弹</t>
   </si>
   <si>
     <t>bullet0003</t>
@@ -224,6 +230,39 @@
     <t>[300,400]</t>
   </si>
   <si>
+    <t>shooting0004</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>拖尾子弹1</t>
+  </si>
+  <si>
+    <t>bullet0006</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[350,350]</t>
+  </si>
+  <si>
+    <t>[600,600]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
@@ -233,9 +272,6 @@
     <t>[75]</t>
   </si>
   <si>
-    <t>[600,600]</t>
-  </si>
-  <si>
     <t>0005</t>
   </si>
   <si>
@@ -279,30 +315,6 @@
   </si>
   <si>
     <t>[170]</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>拖尾子弹1</t>
-  </si>
-  <si>
-    <t>bullet0006</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>[350,350]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>shooting0012</t>
   </si>
   <si>
     <t>0008</t>
@@ -381,13 +393,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -854,137 +871,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1018,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1314,12 +1334,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1337,7 +1357,7 @@
     <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="20.25" customWidth="1"/>
+    <col min="15" max="15" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:15">
@@ -1481,11 +1501,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:14">
+    <row r="4" ht="28" customHeight="1" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="1">
@@ -1524,31 +1544,34 @@
       <c r="N4" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:13">
+    <row r="5" ht="26" customHeight="1" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>42</v>
@@ -1565,333 +1588,246 @@
       <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" ht="29" customHeight="1" spans="1:13">
+    <row r="6" ht="29" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>40</v>
+      <c r="M7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="7" ht="29" customHeight="1" spans="1:13">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="8" ht="29" customHeight="1" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" ht="29" customHeight="1" spans="1:15">
+      <c r="A10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" ht="29" customHeight="1" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="J11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" ht="26" customHeight="1" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="12" ht="26" customHeight="1" spans="1:15">
+      <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="28" customHeight="1" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" ht="26" customHeight="1" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="26" customHeight="1" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>40</v>
@@ -1900,80 +1836,203 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="M14" s="2"/>
+    <row r="15" ht="26" customHeight="1" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" ht="26" customHeight="1" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" ht="25" customHeight="1" spans="1:12">
-      <c r="A16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>98</v>
+    <row r="16" ht="26" customHeight="1" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="M16" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" ht="25" customHeight="1"/>
-    <row r="18" ht="25" customHeight="1"/>
-    <row r="19" ht="20" customHeight="1" spans="1:10">
-      <c r="A19" s="1">
+    <row r="17" ht="26" customHeight="1" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:13">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" ht="26" customHeight="1" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:12">
+      <c r="A20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="25" customHeight="1"/>
+    <row r="22" ht="25" customHeight="1"/>
+    <row r="23" ht="20" customHeight="1" spans="1:10">
+      <c r="A23" s="1">
         <v>2001</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -182,7 +182,7 @@
     <t>[-1]</t>
   </si>
   <si>
-    <t>[200,250]</t>
+    <t>[220,250]</t>
   </si>
   <si>
     <t>shooting0005</t>
@@ -209,6 +209,9 @@
     <t>[280,380]</t>
   </si>
   <si>
+    <t>[150,180]</t>
+  </si>
+  <si>
     <t>shooting0003</t>
   </si>
   <si>
@@ -227,7 +230,7 @@
     <t>[320,340]</t>
   </si>
   <si>
-    <t>[300,400]</t>
+    <t>[180,200]</t>
   </si>
   <si>
     <t>shooting0004</t>
@@ -251,25 +254,28 @@
     <t>[350,350]</t>
   </si>
   <si>
+    <t>[500,500]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>狙击枪子弹</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
     <t>[600,600]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>shooting0012</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>狙击枪子弹</t>
-  </si>
-  <si>
-    <t>[75]</t>
   </si>
   <si>
     <t>0005</t>
@@ -1337,9 +1343,9 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N5" sqref="N5"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1577,7 +1583,7 @@
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>40</v>
@@ -1589,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>45</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>49</v>
@@ -1618,13 +1624,13 @@
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>40</v>
@@ -1636,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>45</v>
@@ -1644,49 +1650,49 @@
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="29" customHeight="1" spans="1:15">
@@ -1709,10 +1715,10 @@
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1724,19 +1730,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>40</v>
@@ -1750,37 +1756,37 @@
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>38</v>
@@ -1789,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>45</v>
@@ -1797,37 +1803,37 @@
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>40</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -1859,13 +1865,13 @@
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>40</v>
@@ -1879,16 +1885,16 @@
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
@@ -1900,13 +1906,13 @@
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>40</v>
@@ -1920,34 +1926,34 @@
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>40</v>
@@ -1974,31 +1980,31 @@
         <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>40</v>
@@ -2011,28 +2017,28 @@
         <v>2001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="14280"/>
+    <workbookView windowWidth="29400" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -239,7 +239,7 @@
     <t>0007</t>
   </si>
   <si>
-    <t>拖尾子弹1</t>
+    <t>拖尾子弹</t>
   </si>
   <si>
     <t>bullet0006</t>
@@ -266,6 +266,21 @@
     <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
   </si>
   <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>毒液子弹</t>
+  </si>
+  <si>
+    <t>bullet0007</t>
+  </si>
+  <si>
+    <t>[350,380]</t>
+  </si>
+  <si>
+    <t>[400,450]</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
@@ -321,21 +336,6 @@
   </si>
   <si>
     <t>[170]</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>子弹4</t>
-  </si>
-  <si>
-    <t>bullet0007</t>
-  </si>
-  <si>
-    <t>[350,380]</t>
-  </si>
-  <si>
-    <t>[400,450]</t>
   </si>
   <si>
     <t>0009</t>
@@ -1343,22 +1343,22 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.9083333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.725" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.4583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.9038461538462" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.7211538461538" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4615384615385" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.725" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.2583333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7211538461538" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.2596153846154" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
@@ -1695,11 +1695,52 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="O8" s="3"/>
+    <row r="8" ht="26" customHeight="1" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="3"/>
@@ -1715,10 +1756,10 @@
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1730,19 +1771,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>40</v>
@@ -1756,37 +1797,37 @@
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>38</v>
@@ -1795,7 +1836,7 @@
         <v>40</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>45</v>
@@ -1803,83 +1844,42 @@
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1906,13 +1906,13 @@
         <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>40</v>
@@ -2004,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>40</v>
@@ -2026,7 +2026,7 @@
         <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>40</v>
@@ -2057,7 +2057,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2074,7 +2074,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14020"/>
+    <workbookView windowWidth="27360" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>HarmRange</t>
+  </si>
+  <si>
+    <t>DamageType</t>
   </si>
   <si>
     <t>RepelRange</t>
@@ -96,6 +99,17 @@
   <si>
     <t>造成的伤害区间
 格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>伤害类型
+Physical(0):物理伤害
+Magic(1):魔法伤害
+Fire(2):火焰伤害
+Ice(3):冰霜伤害
+Thunder(4):雷电伤害
+Light(5):光明伤害
+Dark(6):暗影伤害
+Real(7):真实伤害</t>
   </si>
   <si>
     <t>造成伤害后击退值区间
@@ -1340,33 +1354,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.9038461538462" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.7211538461538" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.4615384615385" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7211538461538" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.2596153846154" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="42.9" style="1" customWidth="1"/>
+    <col min="5" max="7" width="22.725" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.4583333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.725" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.2583333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:15">
+    <row r="1" ht="33" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1400,10 +1414,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1412,633 +1426,658 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="122" customHeight="1" spans="1:15">
+    <row r="2" ht="152" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" ht="64" customHeight="1" spans="1:15">
+    <row r="3" ht="27" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:15">
+    <row r="4" ht="28" customHeight="1" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:15">
+    <row r="5" ht="26" customHeight="1" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" ht="29" customHeight="1" spans="1:15">
+    <row r="6" ht="29" customHeight="1" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" ht="28" customHeight="1" spans="1:15">
+    <row r="7" ht="28" customHeight="1" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:15">
+    <row r="8" ht="26" customHeight="1" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" ht="29" customHeight="1" spans="1:15">
+    <row r="9" ht="29" customHeight="1" spans="1:16">
       <c r="A9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="29" customHeight="1" spans="1:15">
+    <row r="10" ht="29" customHeight="1" spans="1:16">
       <c r="A10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="O10" s="3"/>
+      <c r="L10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="3"/>
     </row>
-    <row r="11" ht="29" customHeight="1" spans="1:13">
+    <row r="11" ht="29" customHeight="1" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:15">
+    <row r="12" ht="26" customHeight="1" spans="1:16">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>45</v>
+      <c r="N12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1" spans="1:13">
+    <row r="13" ht="26" customHeight="1" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1" spans="1:13">
+    <row r="16" ht="26" customHeight="1" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1" spans="1:13">
+    <row r="17" ht="26" customHeight="1" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1" spans="1:13">
+    <row r="18" ht="26" customHeight="1" spans="1:14">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="K18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="1:12">
+    <row r="20" ht="25" customHeight="1" spans="1:13">
       <c r="A20" s="1">
         <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1"/>
     <row r="22" ht="25" customHeight="1"/>
-    <row r="23" ht="20" customHeight="1" spans="1:10">
+    <row r="23" ht="20" customHeight="1" spans="1:11">
       <c r="A23" s="1">
         <v>2001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>107</v>
+        <v>44</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2096,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2074,7 +2113,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -1359,7 +1359,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Id</t>
   </si>
@@ -97,11 +97,11 @@
 Type为3，不填</t>
   </si>
   <si>
-    <t>造成的伤害区间
+    <t>造成的伤害区间，可填多段伤害，多段伤害可造成不同属性的伤害，伤害类型在'DamageType'字段配置
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>伤害类型
+    <t>伤害类型，对应'HarmRange'中的配置，一对一配置
 Physical(0):物理伤害
 Magic(1):魔法伤害
 Fire(2):火焰伤害
@@ -163,12 +163,18 @@
     <t>int</t>
   </si>
   <si>
+    <t>[[int]]*</t>
+  </si>
+  <si>
+    <t>[DamageType]*</t>
+  </si>
+  <si>
+    <t>[float]</t>
+  </si>
+  <si>
     <t>[int]</t>
   </si>
   <si>
-    <t>[float]</t>
-  </si>
-  <si>
     <t>$Sound</t>
   </si>
   <si>
@@ -181,162 +187,171 @@
     <t>bullet0001</t>
   </si>
   <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[320,350]</t>
+  </si>
+  <si>
+    <t>[-1]</t>
+  </si>
+  <si>
+    <t>[220,250]</t>
+  </si>
+  <si>
+    <t>shooting0005</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>霰弹枪子弹</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[-10,10]</t>
+  </si>
+  <si>
+    <t>[280,380]</t>
+  </si>
+  <si>
+    <t>[150,180]</t>
+  </si>
+  <si>
+    <t>shooting0003</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>手枪子弹</t>
+  </si>
+  <si>
+    <t>bullet0003</t>
+  </si>
+  <si>
+    <t>[7],[2,5]</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>[320,340]</t>
+  </si>
+  <si>
+    <t>[180,200]</t>
+  </si>
+  <si>
+    <t>shooting0004</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>拖尾子弹</t>
+  </si>
+  <si>
+    <t>bullet0006</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[350,350]</t>
+  </si>
+  <si>
+    <t>[500,500]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>毒液子弹</t>
+  </si>
+  <si>
+    <t>bullet0007</t>
+  </si>
+  <si>
+    <t>[350,380]</t>
+  </si>
+  <si>
+    <t>[400,450]</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>水子弹</t>
+  </si>
+  <si>
+    <t>bullet0008</t>
+  </si>
+  <si>
+    <t>狙击枪子弹</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[600,600]</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>bullet0004</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[180,180]</t>
+  </si>
+  <si>
+    <t>[270,360]</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
     <t>[4]</t>
   </si>
   <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[320,350]</t>
-  </si>
-  <si>
-    <t>[-1]</t>
-  </si>
-  <si>
-    <t>[220,250]</t>
-  </si>
-  <si>
-    <t>shooting0005</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>霰弹枪子弹</t>
-  </si>
-  <si>
-    <t>bullet0002</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[-10,10]</t>
-  </si>
-  <si>
-    <t>[280,380]</t>
-  </si>
-  <si>
-    <t>[150,180]</t>
-  </si>
-  <si>
-    <t>shooting0003</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>手枪子弹</t>
-  </si>
-  <si>
-    <t>bullet0003</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[320,340]</t>
-  </si>
-  <si>
-    <t>[180,200]</t>
-  </si>
-  <si>
-    <t>shooting0004</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>拖尾子弹</t>
-  </si>
-  <si>
-    <t>bullet0006</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>[350,350]</t>
-  </si>
-  <si>
-    <t>[500,500]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>shooting0012</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>毒液子弹</t>
-  </si>
-  <si>
-    <t>bullet0007</t>
-  </si>
-  <si>
-    <t>[350,380]</t>
-  </si>
-  <si>
-    <t>[400,450]</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>狙击枪子弹</t>
-  </si>
-  <si>
-    <t>[75]</t>
-  </si>
-  <si>
-    <t>[600,600]</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>榴弹炮</t>
-  </si>
-  <si>
-    <t>bullet0004</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[85]</t>
-  </si>
-  <si>
-    <t>[180,180]</t>
-  </si>
-  <si>
-    <t>[270,360]</t>
-  </si>
-  <si>
-    <t>[70]</t>
-  </si>
-  <si>
     <t>shooting0011</t>
   </si>
   <si>
-    <t>0006</t>
-  </si>
-  <si>
     <t>抛物线粘液子弹</t>
   </si>
   <si>
@@ -352,16 +367,7 @@
     <t>[170]</t>
   </si>
   <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>子弹5</t>
-  </si>
-  <si>
-    <t>bullet0008</t>
-  </si>
-  <si>
-    <t>0010</t>
+    <t>子弹5（彩色）</t>
   </si>
   <si>
     <t>弓箭</t>
@@ -386,9 +392,6 @@
   </si>
   <si>
     <t>[7]</t>
-  </si>
-  <si>
-    <t>[35]</t>
   </si>
   <si>
     <t>[2000,2000]</t>
@@ -1359,7 +1362,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1430,7 +1433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="152" customHeight="1" spans="1:16">
+    <row r="2" ht="168" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,34 +1500,34 @@
         <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>32</v>
@@ -1532,259 +1535,303 @@
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:16">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="29" customHeight="1" spans="1:16">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="26" customHeight="1" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="1:16">
-      <c r="A9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="P9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:16">
       <c r="A10" s="3"/>
@@ -1793,215 +1840,205 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:16">
-      <c r="A12" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:14">
-      <c r="A16" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1" spans="1:14">
-      <c r="A17" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1" spans="1:14">
@@ -2019,34 +2056,34 @@
         <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1"/>
@@ -2056,28 +2093,28 @@
         <v>2001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Penetration</t>
+  </si>
+  <si>
+    <t>CameraShake</t>
+  </si>
+  <si>
+    <t>BacklashRange</t>
+  </si>
+  <si>
+    <t>UpliftAngle</t>
   </si>
   <si>
     <t>ShootSound</t>
@@ -151,6 +160,16 @@
 格式为[value]或者[min,max]</t>
   </si>
   <si>
+    <t>开火后相机抖动强度,只有玩家拾起武器开火才会抖动相机</t>
+  </si>
+  <si>
+    <t>后坐力区间 (仅用于开火后武器身抖动)
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>开火后武器口上抬角度</t>
+  </si>
+  <si>
     <t>射击音效</t>
   </si>
   <si>
@@ -175,6 +194,9 @@
     <t>[int]</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>$Sound</t>
   </si>
   <si>
@@ -205,6 +227,9 @@
     <t>[220,250]</t>
   </si>
   <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
     <t>shooting0005</t>
   </si>
   <si>
@@ -229,7 +254,10 @@
     <t>[280,380]</t>
   </si>
   <si>
-    <t>[150,180]</t>
+    <t>[180,230]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
   </si>
   <si>
     <t>shooting0003</t>
@@ -244,18 +272,15 @@
     <t>bullet0003</t>
   </si>
   <si>
-    <t>[7],[2,5]</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
     <t>[320,340]</t>
   </si>
   <si>
     <t>[180,200]</t>
   </si>
   <si>
+    <t>[3,5]</t>
+  </si>
+  <si>
     <t>shooting0004</t>
   </si>
   <si>
@@ -268,130 +293,133 @@
     <t>bullet0006</t>
   </si>
   <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[350,350]</t>
+  </si>
+  <si>
+    <t>[500,500]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>毒液子弹</t>
+  </si>
+  <si>
+    <t>bullet0007</t>
+  </si>
+  <si>
+    <t>[350,380]</t>
+  </si>
+  <si>
+    <t>[400,450]</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>水子弹</t>
+  </si>
+  <si>
+    <t>bullet0008</t>
+  </si>
+  <si>
+    <t>狙击枪子弹</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[600,600]</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>bullet0004</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[180,180]</t>
+  </si>
+  <si>
+    <t>[270,360]</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
+    <t>抛物线粘液子弹</t>
+  </si>
+  <si>
+    <t>bullet0005</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[100,100]</t>
+  </si>
+  <si>
+    <t>[170]</t>
+  </si>
+  <si>
+    <t>子弹5（彩色）</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>bullet0009</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[400,400]</t>
+  </si>
+  <si>
+    <t>[250,300]</t>
+  </si>
+  <si>
+    <t>激光1</t>
+  </si>
+  <si>
+    <t>res://prefab/bullet/laser/Laser0001.tscn</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
     <t>[35]</t>
-  </si>
-  <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>[350,350]</t>
-  </si>
-  <si>
-    <t>[500,500]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>shooting0012</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>毒液子弹</t>
-  </si>
-  <si>
-    <t>bullet0007</t>
-  </si>
-  <si>
-    <t>[350,380]</t>
-  </si>
-  <si>
-    <t>[400,450]</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>水子弹</t>
-  </si>
-  <si>
-    <t>bullet0008</t>
-  </si>
-  <si>
-    <t>狙击枪子弹</t>
-  </si>
-  <si>
-    <t>[75]</t>
-  </si>
-  <si>
-    <t>[600,600]</t>
-  </si>
-  <si>
-    <t>榴弹炮</t>
-  </si>
-  <si>
-    <t>bullet0004</t>
-  </si>
-  <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[85]</t>
-  </si>
-  <si>
-    <t>[180,180]</t>
-  </si>
-  <si>
-    <t>[270,360]</t>
-  </si>
-  <si>
-    <t>[70]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>shooting0011</t>
-  </si>
-  <si>
-    <t>抛物线粘液子弹</t>
-  </si>
-  <si>
-    <t>bullet0005</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[100,100]</t>
-  </si>
-  <si>
-    <t>[170]</t>
-  </si>
-  <si>
-    <t>子弹5（彩色）</t>
-  </si>
-  <si>
-    <t>弓箭</t>
-  </si>
-  <si>
-    <t>bullet0009</t>
-  </si>
-  <si>
-    <t>[55]</t>
-  </si>
-  <si>
-    <t>[400,400]</t>
-  </si>
-  <si>
-    <t>[250,300]</t>
-  </si>
-  <si>
-    <t>激光1</t>
-  </si>
-  <si>
-    <t>res://prefab/bullet/laser/Laser0001.tscn</t>
-  </si>
-  <si>
-    <t>[7]</t>
   </si>
   <si>
     <t>[2000,2000]</t>
@@ -1357,12 +1385,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,12 +1406,12 @@
     <col min="11" max="11" width="22.2583333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="50.375" customWidth="1"/>
+    <col min="14" max="17" width="19.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="19" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:16">
+    <row r="1" ht="33" customHeight="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,620 +1460,722 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="168" customHeight="1" spans="1:16">
+    <row r="2" ht="168" customHeight="1" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:16">
+    <row r="3" ht="27" customHeight="1" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:16">
+    <row r="4" ht="28" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:16">
+    <row r="5" ht="26" customHeight="1" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="6" ht="29" customHeight="1" spans="1:16">
+    <row r="6" ht="29" customHeight="1" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" ht="28" customHeight="1" spans="1:16">
+    <row r="7" ht="28" customHeight="1" spans="1:19">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>16</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:16">
+    <row r="8" ht="26" customHeight="1" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="26" customHeight="1" spans="1:16">
+    <row r="9" customFormat="1" ht="26" customHeight="1" spans="1:19">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="10" ht="29" customHeight="1" spans="1:16">
+    <row r="10" ht="29" customHeight="1" spans="1:19">
       <c r="A10" s="3"/>
       <c r="L10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="3"/>
     </row>
-    <row r="11" ht="29" customHeight="1" spans="1:14">
+    <row r="11" ht="29" customHeight="1" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:16">
+    <row r="12" ht="26" customHeight="1" spans="1:19">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1" spans="1:14">
+    <row r="13" ht="26" customHeight="1" spans="1:17">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
-    <row r="16" ht="26" customHeight="1" spans="1:14">
+    <row r="16" ht="26" customHeight="1" spans="1:17">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
-    <row r="17" ht="26" customHeight="1" spans="1:14">
+    <row r="17" ht="26" customHeight="1" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
     </row>
-    <row r="18" ht="26" customHeight="1" spans="1:14">
+    <row r="18" ht="26" customHeight="1" spans="1:17">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="L18" s="2"/>
       <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:2">
       <c r="A19" s="3"/>
@@ -2056,34 +2186,34 @@
         <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1"/>
@@ -2093,28 +2223,28 @@
         <v>2001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/BulletBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BulletBase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="14685"/>
+    <workbookView windowWidth="24765" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="131">
   <si>
     <t>Id</t>
   </si>
@@ -43,10 +43,10 @@
     <t>Prefab</t>
   </si>
   <si>
-    <t>HarmRange</t>
-  </si>
-  <si>
-    <t>DamageType</t>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>AbnormalState</t>
   </si>
   <si>
     <t>RepelRange</t>
@@ -106,11 +106,8 @@
 Type为3，不填</t>
   </si>
   <si>
-    <t>造成的伤害区间，可填多段伤害，多段伤害可造成不同属性的伤害，伤害类型在'DamageType'字段配置
-格式为[value]或者[min,max]</t>
-  </si>
-  <si>
-    <t>伤害类型，对应'HarmRange'中的配置，一对一配置
+    <t>造成伤害的类型和值区间，多个key-value可以做多类型伤害
+key为伤害类型，值如下
 Physical(0):物理伤害
 Magic(1):魔法伤害
 Fire(2):火焰伤害
@@ -118,7 +115,13 @@
 Thunder(4):雷电伤害
 Light(5):光明伤害
 Dark(6):暗影伤害
-Real(7):真实伤害</t>
+Real(7):真实伤害
+value为伤害值，格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>累计异常状态数据
+Burning(0):燃烧
+Poisoning(1):中毒</t>
   </si>
   <si>
     <t>造成伤害后击退值区间
@@ -182,10 +185,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>[[int]]*</t>
-  </si>
-  <si>
-    <t>[DamageType]*</t>
+    <t>{DamageType:[int]}*</t>
+  </si>
+  <si>
+    <t>{AbnormalStateType:int}*</t>
   </si>
   <si>
     <t>[float]</t>
@@ -209,45 +212,45 @@
     <t>bullet0001</t>
   </si>
   <si>
+    <t>"Physical":[15]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[320,350]</t>
+  </si>
+  <si>
+    <t>[-1]</t>
+  </si>
+  <si>
+    <t>[220,250]</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
+    <t>shooting0005</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>霰弹枪子弹</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
     <t>[15]</t>
   </si>
   <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[320,350]</t>
-  </si>
-  <si>
-    <t>[-1]</t>
-  </si>
-  <si>
-    <t>[220,250]</t>
-  </si>
-  <si>
-    <t>[2,4]</t>
-  </si>
-  <si>
-    <t>shooting0005</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0001.tscn</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>霰弹枪子弹</t>
-  </si>
-  <si>
-    <t>bullet0002</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
     <t>[-10,10]</t>
   </si>
   <si>
@@ -293,99 +296,117 @@
     <t>bullet0006</t>
   </si>
   <si>
+    <t>"Magic":[30]</t>
+  </si>
+  <si>
+    <t>"Burning":15</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[350,350]</t>
+  </si>
+  <si>
+    <t>[500,500]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>shooting0012</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>毒液子弹</t>
+  </si>
+  <si>
+    <t>bullet0007</t>
+  </si>
+  <si>
+    <t>"Real":[20]</t>
+  </si>
+  <si>
+    <t>"Poisoning":10</t>
+  </si>
+  <si>
+    <t>[350,380]</t>
+  </si>
+  <si>
+    <t>[400,450]</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>水子弹</t>
+  </si>
+  <si>
+    <t>bullet0008</t>
+  </si>
+  <si>
+    <t>狙击枪子弹</t>
+  </si>
+  <si>
+    <t>"Physical":[20]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[600,600]</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>bullet0004</t>
+  </si>
+  <si>
+    <t>"Physical":[30]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[180,180]</t>
+  </si>
+  <si>
+    <t>[270,360]</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
+    <t>抛物线粘液子弹</t>
+  </si>
+  <si>
+    <t>bullet0005</t>
+  </si>
+  <si>
+    <t>"Physical":[5]</t>
+  </si>
+  <si>
     <t>[30]</t>
   </si>
   <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>[350,350]</t>
-  </si>
-  <si>
-    <t>[500,500]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
-    <t>shooting0012</t>
-  </si>
-  <si>
-    <t>res://prefab/effect/weapon/ShotFire0004.tscn</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>毒液子弹</t>
-  </si>
-  <si>
-    <t>bullet0007</t>
-  </si>
-  <si>
-    <t>[350,380]</t>
-  </si>
-  <si>
-    <t>[400,450]</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>水子弹</t>
-  </si>
-  <si>
-    <t>bullet0008</t>
-  </si>
-  <si>
-    <t>狙击枪子弹</t>
-  </si>
-  <si>
-    <t>[75]</t>
-  </si>
-  <si>
-    <t>[600,600]</t>
-  </si>
-  <si>
-    <t>榴弹炮</t>
-  </si>
-  <si>
-    <t>bullet0004</t>
-  </si>
-  <si>
-    <t>[85]</t>
-  </si>
-  <si>
-    <t>[180,180]</t>
-  </si>
-  <si>
-    <t>[270,360]</t>
-  </si>
-  <si>
-    <t>[70]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>shooting0011</t>
-  </si>
-  <si>
-    <t>抛物线粘液子弹</t>
-  </si>
-  <si>
-    <t>bullet0005</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
     <t>[100,100]</t>
   </si>
   <si>
@@ -395,6 +416,9 @@
     <t>子弹5（彩色）</t>
   </si>
   <si>
+    <t>"Physical":[4]</t>
+  </si>
+  <si>
     <t>弓箭</t>
   </si>
   <si>
@@ -416,7 +440,7 @@
     <t>res://prefab/bullet/laser/Laser0001.tscn</t>
   </si>
   <si>
-    <t>[7]</t>
+    <t>"Physical":[7]</t>
   </si>
   <si>
     <t>[35]</t>
@@ -428,7 +452,7 @@
     <t>刀伤害</t>
   </si>
   <si>
-    <t>[25]</t>
+    <t>"Physical":[25]</t>
   </si>
   <si>
     <t>[350]</t>
@@ -1052,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1087,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1388,9 +1415,9 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1398,8 +1425,9 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.9" style="1" customWidth="1"/>
-    <col min="5" max="7" width="22.725" style="1" customWidth="1"/>
+    <col min="4" max="5" width="42.9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.725" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.4583333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="31.725" style="1" customWidth="1"/>
@@ -1470,7 +1498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="168" customHeight="1" spans="1:19">
+    <row r="2" ht="183" customHeight="1" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1604,9 +1632,6 @@
       <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1661,13 +1686,10 @@
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>62</v>
@@ -1722,11 +1744,8 @@
       <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>51</v>
@@ -1781,82 +1800,82 @@
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
+      <c r="F7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2">
         <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="1">
         <v>16</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>51</v>
@@ -1877,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>57</v>
@@ -1885,37 +1904,35 @@
     </row>
     <row r="9" customFormat="1" ht="26" customHeight="1" spans="1:19">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>51</v>
@@ -1936,7 +1953,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>57</v>
@@ -1952,34 +1969,34 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:17">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>96</v>
+      <c r="K11" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>51</v>
@@ -1997,37 +2014,37 @@
     <row r="12" ht="26" customHeight="1" spans="1:19">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>51</v>
@@ -2036,43 +2053,43 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S12" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:17">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>51</v>
@@ -2087,31 +2104,31 @@
     <row r="16" ht="26" customHeight="1" spans="1:17">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>51</v>
@@ -2129,31 +2146,31 @@
     <row r="17" ht="26" customHeight="1" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>51</v>
@@ -2186,31 +2203,31 @@
         <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>51</v>
@@ -2223,28 +2240,28 @@
         <v>2001</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
